--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N2">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q2">
-        <v>2.301487223275333</v>
+        <v>5.10106142938811</v>
       </c>
       <c r="R2">
-        <v>20.713385009478</v>
+        <v>45.90955286449299</v>
       </c>
       <c r="S2">
-        <v>0.0007977203027039797</v>
+        <v>0.001548664605674023</v>
       </c>
       <c r="T2">
-        <v>0.0007977203027039797</v>
+        <v>0.001548664605674023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q3">
-        <v>26.55539031381033</v>
+        <v>21.01065809107744</v>
       </c>
       <c r="R3">
-        <v>238.998512824293</v>
+        <v>189.095922819697</v>
       </c>
       <c r="S3">
-        <v>0.009204384793154611</v>
+        <v>0.00637876312175156</v>
       </c>
       <c r="T3">
-        <v>0.009204384793154613</v>
+        <v>0.006378763121751558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N4">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q4">
-        <v>31.27937862657733</v>
+        <v>27.20433469025911</v>
       </c>
       <c r="R4">
-        <v>281.514407639196</v>
+        <v>244.839012212332</v>
       </c>
       <c r="S4">
-        <v>0.01084177011023127</v>
+        <v>0.008259141913679713</v>
       </c>
       <c r="T4">
-        <v>0.01084177011023127</v>
+        <v>0.008259141913679711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N5">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O5">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P5">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q5">
-        <v>3.067960026519333</v>
+        <v>1.288313254869556</v>
       </c>
       <c r="R5">
-        <v>27.611640238674</v>
+        <v>11.594819293826</v>
       </c>
       <c r="S5">
-        <v>0.001063388045907012</v>
+        <v>0.0003911274479743924</v>
       </c>
       <c r="T5">
-        <v>0.001063388045907012</v>
+        <v>0.0003911274479743923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N6">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q6">
-        <v>85.08452039369956</v>
+        <v>238.3502293002382</v>
       </c>
       <c r="R6">
-        <v>765.760683543296</v>
+        <v>2145.152063702144</v>
       </c>
       <c r="S6">
-        <v>0.02949121275906603</v>
+        <v>0.07236230517534549</v>
       </c>
       <c r="T6">
-        <v>0.02949121275906602</v>
+        <v>0.07236230517534548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q7">
         <v>981.7359079241529</v>
@@ -883,10 +883,10 @@
         <v>8835.623171317377</v>
       </c>
       <c r="S7">
-        <v>0.3402802577935194</v>
+        <v>0.2980516258757861</v>
       </c>
       <c r="T7">
-        <v>0.3402802577935195</v>
+        <v>0.298051625875786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N8">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q8">
-        <v>1156.378754459364</v>
+        <v>1271.139252318606</v>
       </c>
       <c r="R8">
-        <v>10407.40879013427</v>
+        <v>11440.25327086746</v>
       </c>
       <c r="S8">
-        <v>0.4008133526524545</v>
+        <v>0.3859134802038454</v>
       </c>
       <c r="T8">
-        <v>0.4008133526524545</v>
+        <v>0.3859134802038453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N9">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O9">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P9">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q9">
-        <v>113.4205329508409</v>
+        <v>60.19722835322312</v>
       </c>
       <c r="R9">
-        <v>1020.784796557568</v>
+        <v>541.7750551790079</v>
       </c>
       <c r="S9">
-        <v>0.03931278043317966</v>
+        <v>0.0182756703091686</v>
       </c>
       <c r="T9">
-        <v>0.03931278043317966</v>
+        <v>0.0182756703091686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N10">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q10">
-        <v>16.19465578979423</v>
+        <v>60.91631447173833</v>
       </c>
       <c r="R10">
-        <v>145.751902108148</v>
+        <v>548.246830245645</v>
       </c>
       <c r="S10">
-        <v>0.005613242423495261</v>
+        <v>0.01849398236747087</v>
       </c>
       <c r="T10">
-        <v>0.005613242423495259</v>
+        <v>0.01849398236747087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q11">
-        <v>186.8597840329376</v>
+        <v>250.9069677460783</v>
       </c>
       <c r="R11">
-        <v>1681.738056296438</v>
+        <v>2258.162709714705</v>
       </c>
       <c r="S11">
-        <v>0.06476761720615583</v>
+        <v>0.07617448753444157</v>
       </c>
       <c r="T11">
-        <v>0.06476761720615583</v>
+        <v>0.07617448753444157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N12">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q12">
-        <v>220.1006223511262</v>
+        <v>324.8711723875534</v>
       </c>
       <c r="R12">
-        <v>1980.905601160136</v>
+        <v>2923.840551487981</v>
       </c>
       <c r="S12">
-        <v>0.07628925040800447</v>
+        <v>0.09862976422551699</v>
       </c>
       <c r="T12">
-        <v>0.07628925040800445</v>
+        <v>0.09862976422551699</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N13">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O13">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P13">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q13">
-        <v>21.58802191203156</v>
+        <v>15.38489517487667</v>
       </c>
       <c r="R13">
-        <v>194.292197208284</v>
+        <v>138.46405657389</v>
       </c>
       <c r="S13">
-        <v>0.007482641311359452</v>
+        <v>0.004670800959594516</v>
       </c>
       <c r="T13">
-        <v>0.007482641311359451</v>
+        <v>0.004670800959594516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H14">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N14">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q14">
-        <v>1.475235032099111</v>
+        <v>3.338670403608222</v>
       </c>
       <c r="R14">
-        <v>13.277115288892</v>
+        <v>30.048033632474</v>
       </c>
       <c r="S14">
-        <v>0.0005113323786741836</v>
+        <v>0.001013608786259937</v>
       </c>
       <c r="T14">
-        <v>0.0005113323786741836</v>
+        <v>0.001013608786259937</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H15">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.705039</v>
       </c>
       <c r="O15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q15">
-        <v>17.02179429275578</v>
+        <v>13.75158156788289</v>
       </c>
       <c r="R15">
-        <v>153.196148634802</v>
+        <v>123.764234110946</v>
       </c>
       <c r="S15">
-        <v>0.005899937552752411</v>
+        <v>0.004174932598052269</v>
       </c>
       <c r="T15">
-        <v>0.005899937552752412</v>
+        <v>0.004174932598052268</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H16">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N16">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q16">
-        <v>20.04983328412711</v>
+        <v>17.80537410448623</v>
       </c>
       <c r="R16">
-        <v>180.4484995571439</v>
+        <v>160.248366940376</v>
       </c>
       <c r="S16">
-        <v>0.006949488537162641</v>
+        <v>0.005405649990321777</v>
       </c>
       <c r="T16">
-        <v>0.006949488537162641</v>
+        <v>0.005405649990321776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H17">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N17">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O17">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P17">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q17">
-        <v>1.966538011781777</v>
+        <v>0.8432075155631112</v>
       </c>
       <c r="R17">
-        <v>17.698842106036</v>
+        <v>7.588867640068</v>
       </c>
       <c r="S17">
-        <v>0.0006816232921792625</v>
+        <v>0.0002559948851169901</v>
       </c>
       <c r="T17">
-        <v>0.0006816232921792625</v>
+        <v>0.0002559948851169901</v>
       </c>
     </row>
   </sheetData>
